--- a/biology/Biologie cellulaire et moléculaire/Cellule_entérochromaffine/Cellule_entérochromaffine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_entérochromaffine/Cellule_entérochromaffine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellule_ent%C3%A9rochromaffine</t>
+          <t>Cellule_entérochromaffine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cellule entérochromaffine (ou cellule ECL, pour cellule enterochromaffine-like) est une cellule du tube digestif qui contient des monoamines (comme la sérotonine, par exemple). Ces cellules donnent des réactions positives argentaffines[Quoi ?] et chromaffines ainsi qu'une fluorescence jaune caractéristique.
-Ces cellules font partie des cellules endocrines-paracrines du tube digestif au même titre que les cellules non-entérochromaffines (majorité des cellules). Elles sécrètent également de l'histamine par les ECL et des kinines, qui servent de messagers pour la sécrétion au niveau de certaines glandes et pour les vaisseaux sanguins[1].
+Ces cellules font partie des cellules endocrines-paracrines du tube digestif au même titre que les cellules non-entérochromaffines (majorité des cellules). Elles sécrètent également de l'histamine par les ECL et des kinines, qui servent de messagers pour la sécrétion au niveau de certaines glandes et pour les vaisseaux sanguins.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cellule_ent%C3%A9rochromaffine</t>
+          <t>Cellule_entérochromaffine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules entérochromaffines sont dérivées de la crête neurale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules entérochromaffines sont dérivées de la crête neurale.
 </t>
         </is>
       </c>
